--- a/HiWi_Orga/Stundenübersicht.xlsx
+++ b/HiWi_Orga/Stundenübersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0085718E-E844-4345-A8A3-7761B9037A5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A1035-E9C0-40B7-9FFF-80ACF9F67111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,9 @@
       <c r="D10" s="2">
         <v>37.5</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>30.95</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -727,7 +729,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>31.120000000000005</v>
+        <v>0.17000000000001592</v>
       </c>
     </row>
   </sheetData>

--- a/HiWi_Orga/Stundenübersicht.xlsx
+++ b/HiWi_Orga/Stundenübersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A1035-E9C0-40B7-9FFF-80ACF9F67111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75530C1-A49F-4C60-8B67-4E5EE58B97A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>HiWi Stundenübersicht</t>
   </si>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,13 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +495,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +548,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="5">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="E4" s="5">
         <v>225</v>
@@ -561,8 +568,8 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="D5" s="2">
+        <v>15.5</v>
       </c>
       <c r="E5" s="2">
         <v>28</v>
@@ -582,8 +589,8 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="D6" s="2">
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>29.43</v>
@@ -603,8 +610,8 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
+      <c r="D7" s="2">
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>30.8</v>
@@ -620,8 +627,8 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+      <c r="D8" s="2">
+        <v>26.5</v>
       </c>
       <c r="E8" s="2">
         <v>30.4</v>
@@ -657,7 +664,7 @@
       <c r="D10" s="2">
         <v>37.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>30.95</v>
       </c>
     </row>
@@ -725,9 +732,9 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="E15" s="5">
+        <v>74</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>0.17000000000001592</v>
       </c>

--- a/HiWi_Orga/Stundenübersicht.xlsx
+++ b/HiWi_Orga/Stundenübersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75530C1-A49F-4C60-8B67-4E5EE58B97A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A54C8-E636-4E37-B327-B27914151E72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8952" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>HiWi Stundenübersicht</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Urlaubsprüfung</t>
+  </si>
+  <si>
+    <t>erfolgt! siehe neue Bögen kommen noch</t>
   </si>
 </sst>
 </file>
@@ -495,20 +501,20 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -531,13 +537,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G3" s="4"/>
       <c r="H3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -558,7 +564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -579,7 +585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -600,7 +606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -617,7 +623,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -633,8 +639,11 @@
       <c r="E8" s="2">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -650,8 +659,14 @@
       <c r="E9" s="2">
         <v>40.07</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -668,7 +683,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -685,7 +700,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -702,7 +717,7 @@
         <v>15.53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -710,7 +725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -718,7 +733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
